--- a/data/trans_camb/P1435-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P1435-Habitat-trans_camb.xlsx
@@ -590,7 +590,7 @@
         <v>-2.713089789465453</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2844429266895987</v>
+        <v>0.284442926689598</v>
       </c>
     </row>
     <row r="5">
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.731666960652299</v>
+        <v>-2.781953144300873</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.511797768469875</v>
+        <v>-4.477410312939277</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.666415814723167</v>
+        <v>-1.791622571531466</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.312346271459431</v>
+        <v>1.359796903551648</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-1.315743377886269</v>
+        <v>-1.18778392993977</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.466198249842731</v>
+        <v>2.510128917120754</v>
       </c>
     </row>
     <row r="7">
@@ -641,7 +641,7 @@
         <v>-0.6775612310789024</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>0.07103616707704417</v>
+        <v>0.07103616707704399</v>
       </c>
     </row>
     <row r="8">
@@ -652,13 +652,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.543614692131092</v>
+        <v>-0.5481090903674113</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.8756912583058688</v>
+        <v>-0.8676766479313424</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.354399720376657</v>
+        <v>-0.3697855693006574</v>
       </c>
     </row>
     <row r="9">
@@ -669,13 +669,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.4858701412489926</v>
+        <v>0.4346230263241654</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3608026894818686</v>
+        <v>-0.312572074252405</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.8250022354587843</v>
+        <v>0.8726516767795051</v>
       </c>
     </row>
     <row r="10">
@@ -696,7 +696,7 @@
         <v>-4.01299775920095</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.4731019714709087</v>
+        <v>0.4731019714709094</v>
       </c>
     </row>
     <row r="11">
@@ -707,13 +707,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-3.521419744921401</v>
+        <v>-3.594501560318084</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.60026531009484</v>
+        <v>-5.602486667853173</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.554779296388495</v>
+        <v>-1.4896819112804</v>
       </c>
     </row>
     <row r="12">
@@ -724,13 +724,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2800912944294983</v>
+        <v>0.1899421798986437</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-2.489315900254308</v>
+        <v>-2.645257603091575</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.381518476129091</v>
+        <v>2.372505915658278</v>
       </c>
     </row>
     <row r="13">
@@ -747,7 +747,7 @@
         <v>-0.8008254818892735</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.09441124491467325</v>
+        <v>0.09441124491467338</v>
       </c>
     </row>
     <row r="14">
@@ -758,13 +758,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5812441773218865</v>
+        <v>-0.56908325397177</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.901045363732889</v>
+        <v>-0.8978928079892573</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2475903055910145</v>
+        <v>-0.2509431314012921</v>
       </c>
     </row>
     <row r="15">
@@ -775,13 +775,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.06506496757325146</v>
+        <v>0.07148111528993073</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>-0.6188288307737081</v>
+        <v>-0.6248856670746245</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.6132132215836348</v>
+        <v>0.6118696624189578</v>
       </c>
     </row>
     <row r="16">
@@ -802,7 +802,7 @@
         <v>-10.34938091563096</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-3.535545303404884</v>
+        <v>-3.535545303404887</v>
       </c>
     </row>
     <row r="17">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.367775662127071</v>
+        <v>-9.512890309165707</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-13.24547615444691</v>
+        <v>-12.90290874373077</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.834151326221409</v>
+        <v>-6.49163784112861</v>
       </c>
     </row>
     <row r="18">
@@ -830,13 +830,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-3.789178030898011</v>
+        <v>-3.581749632170214</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-7.918580129009673</v>
+        <v>-7.818663042078419</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.1584886181609608</v>
+        <v>-0.008963809134124472</v>
       </c>
     </row>
     <row r="19">
@@ -853,7 +853,7 @@
         <v>-0.8615221352784528</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.2943123423510963</v>
+        <v>-0.2943123423510965</v>
       </c>
     </row>
     <row r="20">
@@ -864,13 +864,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.68917669159295</v>
+        <v>-0.6892263235422011</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.9288745942062866</v>
+        <v>-0.9302718906882695</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.481328830682653</v>
+        <v>-0.4815224937214583</v>
       </c>
     </row>
     <row r="21">
@@ -881,13 +881,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.3532496314916614</v>
+        <v>-0.3526299503813262</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>-0.7597610598773904</v>
+        <v>-0.7686169560310667</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.004186873044835321</v>
+        <v>0.003808596939254077</v>
       </c>
     </row>
     <row r="22">
@@ -908,7 +908,7 @@
         <v>-6.532138523584445</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-3.494146546411904</v>
+        <v>-3.494146546411903</v>
       </c>
     </row>
     <row r="23">
@@ -919,13 +919,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-8.695981861283574</v>
+        <v>-8.55440472117572</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.848426614511952</v>
+        <v>-8.823463298672007</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-5.579978458903915</v>
+        <v>-5.822012743823342</v>
       </c>
     </row>
     <row r="24">
@@ -936,13 +936,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-4.279422655333978</v>
+        <v>-4.065066670078803</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-4.417919549739174</v>
+        <v>-4.40117196006886</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.237683106833915</v>
+        <v>-1.122122844840401</v>
       </c>
     </row>
     <row r="25">
@@ -959,7 +959,7 @@
         <v>-0.6657395036201638</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.3561148280896983</v>
+        <v>-0.3561148280896981</v>
       </c>
     </row>
     <row r="26">
@@ -970,13 +970,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.765455168648278</v>
+        <v>-0.7650817052530584</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.7732363240648249</v>
+        <v>-0.76799509456068</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5133057355019259</v>
+        <v>-0.5215639398918346</v>
       </c>
     </row>
     <row r="27">
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.4921049322372075</v>
+        <v>-0.4796754638389518</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>-0.5055302276165377</v>
+        <v>-0.5050486120889907</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.141833670418701</v>
+        <v>-0.1231633414992666</v>
       </c>
     </row>
     <row r="28">
@@ -1025,13 +1025,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.897296653264258</v>
+        <v>-4.960174250223071</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-6.836314389101999</v>
+        <v>-6.866126410489702</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-2.695939140567598</v>
+        <v>-2.763033231489436</v>
       </c>
     </row>
     <row r="30">
@@ -1042,13 +1042,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-2.637779204267404</v>
+        <v>-2.746040310123302</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-4.76755878464011</v>
+        <v>-4.878993930580084</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-0.2411263191219034</v>
+        <v>-0.4481437395181161</v>
       </c>
     </row>
     <row r="31">
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5834710484071516</v>
+        <v>-0.5997896382721327</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.8136478757809018</v>
+        <v>-0.8150367314151155</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3230768464885266</v>
+        <v>-0.3317437847335603</v>
       </c>
     </row>
     <row r="33">
@@ -1093,13 +1093,13 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.3732151872940536</v>
+        <v>-0.3860417337555722</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.6819664707716592</v>
+        <v>-0.6879068650471465</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.03320161511917676</v>
+        <v>-0.06164507015906943</v>
       </c>
     </row>
     <row r="34">
